--- a/data/trans_bre/P15_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 8,49</t>
+          <t>-10,92; 8,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 9,63</t>
+          <t>-10,01; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 16,8</t>
+          <t>-1,22; 21,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,49</t>
+          <t>-13,86; 13,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 12,61</t>
+          <t>-14,26; 12,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 12,7</t>
+          <t>-11,62; 8,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 37,29</t>
+          <t>-2,44; 58,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 38,41</t>
+          <t>-31,57; 51,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>41,53%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 10,39</t>
+          <t>-4,6; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 8,59</t>
+          <t>-3,63; 11,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 9,21</t>
+          <t>-13,57; 9,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 16,81</t>
+          <t>0,11; 23,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 13,76</t>
+          <t>-5,51; 18,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 10,43</t>
+          <t>-3,98; 14,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 17,91</t>
+          <t>-21,24; 18,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 60,66</t>
+          <t>-0,85; 96,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-6,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 19,91</t>
+          <t>-16,46; 31,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 10,44</t>
+          <t>-12,64; 16,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 17,97</t>
+          <t>-25,53; 26,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 16,8</t>
+          <t>-37,11; 24,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 31,12</t>
+          <t>-19,08; 62,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 12,78</t>
+          <t>-13,28; 19,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 40,29</t>
+          <t>-35,77; 58,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 55,89</t>
+          <t>-60,14; 91,22</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,47</t>
+          <t>-4,75; 7,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,48</t>
+          <t>-4,63; 5,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 9,9</t>
+          <t>-4,72; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,7</t>
+          <t>-4,52; 14,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 10,4</t>
+          <t>-6,3; 11,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,0</t>
+          <t>-5,3; 7,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 19,7</t>
+          <t>-8,47; 25,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 34,07</t>
+          <t>-12,52; 50,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.216304904893462</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.131775382836409</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.402525572256113</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.246571952726818</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.01716672648701858</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02668990707358104</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1573767334574057</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09976530598294819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,92; 8,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 6,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 21,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,86; 13,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 12,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,62; 8,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 58,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,57; 51,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.91590117151507</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.01664393522411</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.042818847573052</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.16030390757112</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1426218364900611</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1199197867339107</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.05450532086929355</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2865365107790254</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.149038402914439</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.78752502529361</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.60295771946957</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.22851023545242</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1264973285536274</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.0924680782731773</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5010532583071567</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5638821302279245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,47</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,13%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>41,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 13,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 11,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,57; 9,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 23,1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 18,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 14,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,24; 18,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 96,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.628624346823073</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.351302976221893</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.078531464769994</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.61677446008189</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.04571916207921508</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05064332444191522</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01900869477884335</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4546720815692353</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.596553439279571</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.730046434469524</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.61196579987863</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.120049217857495</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.05514642358389375</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.02955257114417503</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1989857682533305</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.02896134649262965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,46; 31,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 16,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; 26,14</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; 24,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,08; 62,36</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 19,84</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-35,77; 58,09</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-60,14; 91,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.5667371386363</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.02817457326574</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.70684065120594</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>23.9343196026816</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1887054400990163</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1678325089038046</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2122517950748272</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9758376623259363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,45%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.991774984119305</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.155101928456026</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.623012282376916</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.5500876156989354</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1262983309823921</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.01272836170862562</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.09482536981164637</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01239642490455429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 7,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 5,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 12,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 14,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 11,25</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 7,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 25,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 50,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.46101960363177</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.37618306000601</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.58085445876986</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-35.14404239372018</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1907744327744489</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1309691453578883</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3234977207863113</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5934315765858615</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>31.92331501709585</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.59752702708535</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>28.99053809140107</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>26.33696279742531</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.6235544351733552</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1966377837260169</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6852802393733602</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.045594023229357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.702139905955558</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6558596668842176</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.52994408250783</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.072177188981249</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.02290090191770303</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.007852945907890034</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.06729135857945097</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2161012251425694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.746637006500477</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.617014197860687</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.760182992061733</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.513044991794037</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.06304418894703981</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.05302596758983039</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08307251747541179</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07435022701245643</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.934568390946276</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.346604355106316</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.64855226287182</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.04505616898047</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1124703101217629</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.09290107348805418</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2421098213611284</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5737643004284031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
